--- a/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,57; 2,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 7,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 10,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 7,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 12,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,44; 19,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 4,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 9,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,17; 14,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,19%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,41; 16,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 52,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 67,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 51,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,12; 83,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,92; 129,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 28,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,17; 60,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,01; 92,54</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 6,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 7,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,66; 21,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 5,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 9,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,23; 27,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 4,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 7,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,97; 23,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,13%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 21,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 27,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,58; 73,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 18,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 29,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,88; 82,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 14,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,52; 24,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,06; 73,82</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 7,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 15,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 26,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 6,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 9,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,89; 21,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 4,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 9,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,59; 22,18</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,55%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; 21,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 42,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,76; 71,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,07; 16,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 24,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,91; 55,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 12,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 23,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,56; 58,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 3,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 9,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,87; 20,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 4,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,5; 10,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,22; 26,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 3,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,5; 9,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,79; 22,56</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,1%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 12,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,51; 32,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,52; 77,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 16,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,04; 37,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,1; 91,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 11,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,39; 32,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,03; 79,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,03</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>11,38</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 10,19</t>
+          <t>0,87; 10,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,46</t>
+          <t>11,95; 18,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 14,54</t>
+          <t>8,6; 13,93</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>71,19%</t>
+          <t>67,77%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 67,02</t>
+          <t>3,93; 66,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,92; 129,85</t>
+          <t>63,29; 125,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,01; 92,54</t>
+          <t>46,89; 89,46</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,79</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,29</t>
+          <t>19,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,08</t>
+          <t>16,24</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 21,42</t>
+          <t>-0,36; 19,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 27,56</t>
+          <t>13,26; 32,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,97; 23,31</t>
+          <t>8,72; 23,07</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,89%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>50,31%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,58; 73,92</t>
+          <t>-0,93; 63,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,88; 82,67</t>
+          <t>37,74; 99,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,06; 73,82</t>
+          <t>26,93; 73,59</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>19,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,58</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,21</t>
+          <t>16,72</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 26,1</t>
+          <t>12,78; 25,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,89; 21,12</t>
+          <t>8,4; 20,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,59; 22,18</t>
+          <t>12,09; 21,49</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>40,37%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,76; 71,67</t>
+          <t>28,9; 69,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,91; 55,49</t>
+          <t>18,04; 54,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,56; 58,19</t>
+          <t>27,56; 56,92</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,18</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,96</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,66</t>
+          <t>17,88</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,87; 20,93</t>
+          <t>4,4; 19,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,22; 26,21</t>
+          <t>16,18; 29,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,79; 22,56</t>
+          <t>13,12; 22,63</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>63,54%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>61,91%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,52; 77,12</t>
+          <t>19,95; 69,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,1; 91,18</t>
+          <t>54,65; 104,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,03; 79,51</t>
+          <t>45,09; 78,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 2,47</t>
+          <t>-5,82; 1,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 7,98</t>
+          <t>-1,22; 8,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,01</t>
+          <t>0,93; 10,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 7,76</t>
+          <t>0,81; 7,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 12,76</t>
+          <t>4,52; 13,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 18,84</t>
+          <t>12,0; 19,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,47</t>
+          <t>-1,0; 4,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,42</t>
+          <t>3,13; 9,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,93</t>
+          <t>8,71; 14,08</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 16,62</t>
+          <t>-29,82; 12,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 52,39</t>
+          <t>-6,46; 56,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 66,68</t>
+          <t>4,82; 67,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 51,69</t>
+          <t>3,35; 51,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 83,49</t>
+          <t>24,06; 88,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,29; 125,93</t>
+          <t>66,3; 131,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 28,19</t>
+          <t>-4,96; 28,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 60,38</t>
+          <t>17,17; 62,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,89; 89,46</t>
+          <t>48,3; 91,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,09</t>
+          <t>-0,83; 6,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,97</t>
+          <t>0,87; 8,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 19,17</t>
+          <t>-0,98; 19,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,82</t>
+          <t>-1,43; 5,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,21</t>
+          <t>2,17; 9,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,26; 32,62</t>
+          <t>13,01; 31,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,43</t>
+          <t>-0,34; 4,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,47</t>
+          <t>2,44; 7,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 23,07</t>
+          <t>8,46; 23,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 21,16</t>
+          <t>-2,76; 20,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 27,63</t>
+          <t>2,64; 27,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 63,6</t>
+          <t>-0,85; 65,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 18,13</t>
+          <t>-4,22; 17,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 29,5</t>
+          <t>6,14; 29,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,74; 99,01</t>
+          <t>37,61; 96,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 14,32</t>
+          <t>-1,01; 15,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 24,09</t>
+          <t>7,13; 24,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 73,59</t>
+          <t>25,59; 74,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 7,76</t>
+          <t>-6,02; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 15,45</t>
+          <t>1,11; 14,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,78; 25,47</t>
+          <t>13,18; 25,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 6,72</t>
+          <t>-8,73; 5,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 9,55</t>
+          <t>-4,54; 9,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,4; 20,57</t>
+          <t>7,95; 20,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,8</t>
+          <t>-4,7; 5,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,4</t>
+          <t>0,23; 9,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 21,49</t>
+          <t>12,78; 21,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 21,06</t>
+          <t>-13,78; 19,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 42,98</t>
+          <t>2,52; 38,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,9; 69,87</t>
+          <t>29,59; 70,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 16,88</t>
+          <t>-19,2; 14,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 24,4</t>
+          <t>-10,0; 24,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,04; 54,43</t>
+          <t>16,74; 52,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 12,3</t>
+          <t>-10,85; 13,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 23,85</t>
+          <t>0,52; 25,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,56; 56,92</t>
+          <t>28,87; 55,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,54</t>
+          <t>-1,6; 3,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,03</t>
+          <t>3,77; 8,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 19,23</t>
+          <t>4,77; 19,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,65</t>
+          <t>-0,19; 4,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,51</t>
+          <t>5,64; 10,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,18; 29,98</t>
+          <t>16,14; 29,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,34</t>
+          <t>-0,29; 3,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,05</t>
+          <t>5,33; 9,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,12; 22,63</t>
+          <t>12,65; 22,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 12,9</t>
+          <t>-5,34; 12,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,51; 32,96</t>
+          <t>13,02; 33,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,95; 69,23</t>
+          <t>16,48; 69,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 16,56</t>
+          <t>-0,4; 17,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,04; 37,31</t>
+          <t>18,73; 37,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,65; 104,73</t>
+          <t>53,7; 103,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 11,97</t>
+          <t>-0,93; 12,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,39; 32,12</t>
+          <t>17,81; 32,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,09; 78,8</t>
+          <t>43,0; 78,08</t>
         </is>
       </c>
     </row>
